--- a/data/trans_dic/P57B3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57B3_R-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1672471645365899</v>
+        <v>0.1655363789878092</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2311971252437518</v>
+        <v>0.2307393184961501</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2110608150076233</v>
+        <v>0.2110281121330658</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.223081783856882</v>
+        <v>0.2264659055353835</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.277484439830323</v>
+        <v>0.2768006709345689</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2470353580060882</v>
+        <v>0.2482546286410914</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09741296914319458</v>
+        <v>0.0990525847406569</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09847461492626648</v>
+        <v>0.09872353732458457</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1025319372412177</v>
+        <v>0.1024739841339898</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1260168745271027</v>
+        <v>0.1270927353979002</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1233621835043796</v>
+        <v>0.1227333588849005</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1210529085640625</v>
+        <v>0.1201418365160835</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.07727696479437723</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.07822204684299124</v>
+        <v>0.07822204684299122</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.07775687458202721</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05749761029602232</v>
+        <v>0.05895499292340803</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06314619978704218</v>
+        <v>0.0630159425815872</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06532891866532405</v>
+        <v>0.06496516256135149</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09890516866200637</v>
+        <v>0.1016724528587188</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09620057311398786</v>
+        <v>0.09661527032279127</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09248894295784986</v>
+        <v>0.09330004245340118</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1080224329956599</v>
+        <v>0.1089697778056404</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1272897494071063</v>
+        <v>0.1261845173787541</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1207204876608579</v>
+        <v>0.120246472872891</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1303733508210049</v>
+        <v>0.1297482870626595</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1459960587690293</v>
+        <v>0.1451525707873394</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.135002872064043</v>
+        <v>0.134953239030789</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>96602</v>
+        <v>95614</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>189430</v>
+        <v>189055</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>294841</v>
+        <v>294795</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>128852</v>
+        <v>130807</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>227355</v>
+        <v>226795</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>345095</v>
+        <v>346799</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>217174</v>
+        <v>220829</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>213594</v>
+        <v>214134</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>450981</v>
+        <v>450726</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>280944</v>
+        <v>283342</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>267576</v>
+        <v>266212</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>532444</v>
+        <v>528437</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>40915</v>
+        <v>41952</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>46358</v>
+        <v>46262</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>94447</v>
+        <v>93921</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>70380</v>
+        <v>72349</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>70624</v>
+        <v>70928</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>133713</v>
+        <v>134886</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>380088</v>
+        <v>383421</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>473837</v>
+        <v>469723</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>874150</v>
+        <v>870718</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>458732</v>
+        <v>456532</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>543471</v>
+        <v>540332</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>977570</v>
+        <v>977211</v>
       </c>
     </row>
     <row r="20">
